--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Jag1-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Jag1-Notch4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.66920033333333</v>
+        <v>7.132470666666666</v>
       </c>
       <c r="H2">
-        <v>47.00760099999999</v>
+        <v>21.397412</v>
       </c>
       <c r="I2">
-        <v>0.2925937299273087</v>
+        <v>0.1078130252899183</v>
       </c>
       <c r="J2">
-        <v>0.2925937299273087</v>
+        <v>0.1078130252899183</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.546424</v>
+        <v>31.61061466666667</v>
       </c>
       <c r="N2">
-        <v>88.63927200000001</v>
+        <v>94.831844</v>
       </c>
       <c r="O2">
-        <v>0.9033225104610835</v>
+        <v>0.8860472269592234</v>
       </c>
       <c r="P2">
-        <v>0.9033225104610834</v>
+        <v>0.8860472269592234</v>
       </c>
       <c r="Q2">
-        <v>462.968836789608</v>
+        <v>225.4617818653031</v>
       </c>
       <c r="R2">
-        <v>4166.719531106472</v>
+        <v>2029.156036787728</v>
       </c>
       <c r="S2">
-        <v>0.2643065026631087</v>
+        <v>0.09552743208821676</v>
       </c>
       <c r="T2">
-        <v>0.2643065026631087</v>
+        <v>0.09552743208821676</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.66920033333333</v>
+        <v>7.132470666666666</v>
       </c>
       <c r="H3">
-        <v>47.00760099999999</v>
+        <v>21.397412</v>
       </c>
       <c r="I3">
-        <v>0.2925937299273087</v>
+        <v>0.1078130252899183</v>
       </c>
       <c r="J3">
-        <v>0.2925937299273087</v>
+        <v>0.1078130252899183</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>5.018356000000001</v>
       </c>
       <c r="O3">
-        <v>0.05114204841740398</v>
+        <v>0.04688826274109129</v>
       </c>
       <c r="P3">
-        <v>0.05114204841740398</v>
+        <v>0.04688826274109129</v>
       </c>
       <c r="Q3">
-        <v>26.21120850266178</v>
+        <v>11.93109232163022</v>
       </c>
       <c r="R3">
-        <v>235.900876523956</v>
+        <v>107.379830894672</v>
       </c>
       <c r="S3">
-        <v>0.01496384270257125</v>
+        <v>0.005055165456705611</v>
       </c>
       <c r="T3">
-        <v>0.01496384270257125</v>
+        <v>0.00505516545670561</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.66920033333333</v>
+        <v>7.132470666666666</v>
       </c>
       <c r="H4">
-        <v>47.00760099999999</v>
+        <v>21.397412</v>
       </c>
       <c r="I4">
-        <v>0.2925937299273087</v>
+        <v>0.1078130252899183</v>
       </c>
       <c r="J4">
-        <v>0.2925937299273087</v>
+        <v>0.1078130252899183</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.489401</v>
+        <v>2.392593</v>
       </c>
       <c r="N4">
-        <v>4.468203</v>
+        <v>7.177778999999999</v>
       </c>
       <c r="O4">
-        <v>0.04553544112151264</v>
+        <v>0.06706451029968528</v>
       </c>
       <c r="P4">
-        <v>0.04553544112151264</v>
+        <v>0.06706451029968527</v>
       </c>
       <c r="Q4">
-        <v>23.337722645667</v>
+        <v>17.065099389772</v>
       </c>
       <c r="R4">
-        <v>210.039503811003</v>
+        <v>153.585894507948</v>
       </c>
       <c r="S4">
-        <v>0.01332338456162874</v>
+        <v>0.007230427744995958</v>
       </c>
       <c r="T4">
-        <v>0.01332338456162874</v>
+        <v>0.007230427744995957</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>49.43030900000001</v>
       </c>
       <c r="I5">
-        <v>0.3076736139282969</v>
+        <v>0.2490596131114117</v>
       </c>
       <c r="J5">
-        <v>0.3076736139282968</v>
+        <v>0.2490596131114118</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.546424</v>
+        <v>31.61061466666667</v>
       </c>
       <c r="N5">
-        <v>88.63927200000001</v>
+        <v>94.831844</v>
       </c>
       <c r="O5">
-        <v>0.9033225104610835</v>
+        <v>0.8860472269592234</v>
       </c>
       <c r="P5">
-        <v>0.9033225104610834</v>
+        <v>0.8860472269592234</v>
       </c>
       <c r="Q5">
-        <v>486.8296227216721</v>
+        <v>520.8408168844219</v>
       </c>
       <c r="R5">
-        <v>4381.466604495049</v>
+        <v>4687.567351959797</v>
       </c>
       <c r="S5">
-        <v>0.2779285013363433</v>
+        <v>0.2206785795449034</v>
       </c>
       <c r="T5">
-        <v>0.2779285013363432</v>
+        <v>0.2206785795449034</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>49.43030900000001</v>
       </c>
       <c r="I6">
-        <v>0.3076736139282969</v>
+        <v>0.2490596131114117</v>
       </c>
       <c r="J6">
-        <v>0.3076736139282968</v>
+        <v>0.2490596131114118</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>5.018356000000001</v>
       </c>
       <c r="O6">
-        <v>0.05114204841740398</v>
+        <v>0.04688826274109129</v>
       </c>
       <c r="P6">
-        <v>0.05114204841740398</v>
+        <v>0.04688826274109129</v>
       </c>
       <c r="Q6">
         <v>27.56209863911156</v>
@@ -818,10 +818,10 @@
         <v>248.0588877520041</v>
       </c>
       <c r="S6">
-        <v>0.01573505886027862</v>
+        <v>0.01167797257776242</v>
       </c>
       <c r="T6">
-        <v>0.01573505886027862</v>
+        <v>0.01167797257776242</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>49.43030900000001</v>
       </c>
       <c r="I7">
-        <v>0.3076736139282969</v>
+        <v>0.2490596131114117</v>
       </c>
       <c r="J7">
-        <v>0.3076736139282968</v>
+        <v>0.2490596131114118</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.489401</v>
+        <v>2.392593</v>
       </c>
       <c r="N7">
-        <v>4.468203</v>
+        <v>7.177778999999999</v>
       </c>
       <c r="O7">
-        <v>0.04553544112151264</v>
+        <v>0.06706451029968528</v>
       </c>
       <c r="P7">
-        <v>0.04553544112151264</v>
+        <v>0.06706451029968527</v>
       </c>
       <c r="Q7">
-        <v>24.54051721830301</v>
+        <v>39.422203767079</v>
       </c>
       <c r="R7">
-        <v>220.864654964727</v>
+        <v>354.799833903711</v>
       </c>
       <c r="S7">
-        <v>0.01401005373167498</v>
+        <v>0.0167030609887459</v>
       </c>
       <c r="T7">
-        <v>0.01401005373167497</v>
+        <v>0.0167030609887459</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>21.406785</v>
+        <v>42.546687</v>
       </c>
       <c r="H8">
-        <v>64.220355</v>
+        <v>127.640061</v>
       </c>
       <c r="I8">
-        <v>0.3997326561443945</v>
+        <v>0.6431273615986699</v>
       </c>
       <c r="J8">
-        <v>0.3997326561443944</v>
+        <v>0.6431273615986699</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.546424</v>
+        <v>31.61061466666667</v>
       </c>
       <c r="N8">
-        <v>88.63927200000001</v>
+        <v>94.831844</v>
       </c>
       <c r="O8">
-        <v>0.9033225104610835</v>
+        <v>0.8860472269592234</v>
       </c>
       <c r="P8">
-        <v>0.9033225104610834</v>
+        <v>0.8860472269592234</v>
       </c>
       <c r="Q8">
-        <v>632.49394608684</v>
+        <v>1344.926928100276</v>
       </c>
       <c r="R8">
-        <v>5692.44551478156</v>
+        <v>12104.34235290248</v>
       </c>
       <c r="S8">
-        <v>0.3610875064616315</v>
+        <v>0.5698412153261032</v>
       </c>
       <c r="T8">
-        <v>0.3610875064616313</v>
+        <v>0.5698412153261032</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>21.406785</v>
+        <v>42.546687</v>
       </c>
       <c r="H9">
-        <v>64.220355</v>
+        <v>127.640061</v>
       </c>
       <c r="I9">
-        <v>0.3997326561443945</v>
+        <v>0.6431273615986699</v>
       </c>
       <c r="J9">
-        <v>0.3997326561443944</v>
+        <v>0.6431273615986699</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>5.018356000000001</v>
       </c>
       <c r="O9">
-        <v>0.05114204841740398</v>
+        <v>0.04688826274109129</v>
       </c>
       <c r="P9">
-        <v>0.05114204841740398</v>
+        <v>0.04688826274109129</v>
       </c>
       <c r="Q9">
-        <v>35.80895598182001</v>
+        <v>71.17147399552401</v>
       </c>
       <c r="R9">
-        <v>322.28060383638</v>
+        <v>640.543265959716</v>
       </c>
       <c r="S9">
-        <v>0.02044314685455412</v>
+        <v>0.03015512470662326</v>
       </c>
       <c r="T9">
-        <v>0.02044314685455412</v>
+        <v>0.03015512470662325</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>21.406785</v>
+        <v>42.546687</v>
       </c>
       <c r="H10">
-        <v>64.220355</v>
+        <v>127.640061</v>
       </c>
       <c r="I10">
-        <v>0.3997326561443945</v>
+        <v>0.6431273615986699</v>
       </c>
       <c r="J10">
-        <v>0.3997326561443944</v>
+        <v>0.6431273615986699</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.489401</v>
+        <v>2.392593</v>
       </c>
       <c r="N10">
-        <v>4.468203</v>
+        <v>7.177778999999999</v>
       </c>
       <c r="O10">
-        <v>0.04553544112151264</v>
+        <v>0.06706451029968528</v>
       </c>
       <c r="P10">
-        <v>0.04553544112151264</v>
+        <v>0.06706451029968527</v>
       </c>
       <c r="Q10">
-        <v>31.883286985785</v>
+        <v>101.796905489391</v>
       </c>
       <c r="R10">
-        <v>286.949582872065</v>
+        <v>916.1721494045188</v>
       </c>
       <c r="S10">
-        <v>0.01820200282820893</v>
+        <v>0.04313102156594342</v>
       </c>
       <c r="T10">
-        <v>0.01820200282820893</v>
+        <v>0.04313102156594341</v>
       </c>
     </row>
   </sheetData>
